--- a/public/quizzes/Countries.xlsx
+++ b/public/quizzes/Countries.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="517">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -681,186 +681,7 @@
     <t>Gitega</t>
   </si>
   <si>
-    <t>Area/Pop.</t>
-  </si>
-  <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary presidential republic. 
-West Africa. 
-Ocean: Atlantic, the Gulf of Guinea 
-Highest point: Mont Sokbaro (658 m) 
-Longest river: Niger (4,184 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A federal parliamentary constitutional monarchy. 
-Northwestern Europe. 
-Sea: the North Sea 
-Highest point: Signal de Botrange (694 m) 
-Longest river: Meuse (925 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary presidential republic. 
-Eastern Europe. 
-Landlocked 
-Highest point: Dzyarzhynskaya Hill (200 m) 
-Longest river: Dnieper(2,145 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary parliamentary constitutional monarchy. 
-Central America 
-Sea: Caribbean 
-Highest point: Victoria (1,122 m) 
-Longest river: Belize (290 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary parliamentary republic. An island country. 
-North America. The West Indies. The Lesser Antilles. 
-Ocean/Sea: the Atlantic Ocean / the Caribbean Sea 
-Highest point: Hillaby (340 m) 
-Longest river: Constitution River (0.57 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary dominant-party parliamentary republic. 
-South Asia. 
-Ocean: Indian, the Bay of Bengal 
-Highest point: Keokradong (986 m) 
-Longest river: Brahmaputra (3,969 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary Islamic parliamentary semi-constitutional monarchy. An island country. 
-Western Asia. 
-Ocean:  Indian, The Persian Gulf 
-Highest point: Jabal al Dukhan (134 m) 
-No rivers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary parliamentary constitutional monarchy. An island country. 
-North America. The West Indies. The Lucayan Archipelago. 
-Ocean: Atlantic 
-Highest point: Alvernia (63 m) 
-Longest river: Goose (8 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary semi-presidential republic. 
-The boundary of Eastern Europe and Western Asia. 
-Sea: Caspian 
-Highest point: Bazarduzu (4,466 m) 
-Longest river: Kura (1,515 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A federal parliamentary republic. 
-Central Europe. The southern part. 
-Landlocked 
-Highest point: Grossglockner (3,798 m) 
-Longest river: Danube (2,850 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A federal parliamentary constitutional monarchy. 
-Oceania. 
-Oceans/Seas: the Indian and Pacific oceans / the Arafura, Timor, Coral, and Tasman Seas 
-Highest point: Kosciuszko (2,228 m) 
-Longest river: Murray (2,508 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary parliamentary republic. 
-Western Asia. 
-Landlocked 
-Highest point: Aragats (4,090 m) 
-Longest rivers: Aras (1,072 km), Akhuryan (186 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A federal presidential republic. 
-South America. The southern half. 
-Ocean:  Atlantic 
-Highest point: Aconcagua (6,961m) 
-Longest river: Paraná (4,880 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary dominant-party parliamentary constitutional monarchy. An island country. 
-North America. The West Indies. 
-Ocean/sea:  juncture of the Atlantic Ocean and the Caribbean Sea 
-Highest point: Boggy Peak (402 m) 
-No rivers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary dominant-party presidential republic. 
-Southern Africa. The west coast. 
-Ocean: Atlantic 
-Highest point: Mount Moco (2,620 m) 
-Longest rivers: Congo (4,700km), Cuanza (960 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary parliamentary constitutional elective diarchy. 
-Southwestern Europe. The Iberian Peninsula in the eastern Pyrenees. 
-Landlocked 
-Highest point:  Coma Pedrosa (2,942 m) 
-Longest river: Gran Valira (35 km) </t>
-  </si>
-  <si>
-    <t>A unitary semi-presidential republic. 
-North Africa. 
-Sea: Mediterranean 
-Highest point: Tahat (3,003 m) 
-Longest river: Chelif (725 km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary parliamentary republic. 
-Southeastern Europe. The Balkan Peninsula. 
-Seas: Adriatic and Ionian (within the Mediterranean Sea) 
-Highest point: Korab (2,764 m) 
-Longest rivers: Drin (335 km), Vjosa (272 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary provisional theocratic Islamic emirate. 
-The crossroads of Central Asia and South Asia. 
-Landlocked 
-Highest point: Noshaq (7,492m) 
-Longest rivers: Amu Darya (2,620 km), Helmand (1,150 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary parliamentary semi-constitutional monarchy. 
-Southern Asia. The Eastern Himalayas. 
-Landlocked 
-Highest point: Gangkhar Puensum (7,570 m) 
-Longest river: Manas (400 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary presidential republic. 
-Western-central South America. 
-Landlocked 
-Highest point: Nevado Sajama (6,542 m) 
-Longest river: Paraguay (2,695 km) 
-</t>
-  </si>
-  <si>
-    <t>A federal parliamentary directorial republic.
-The crossroads of south and southeast Europe
-Sea: the Adriatic Sea within the Mediterranean
-Highest point: Maglić (2,386 m) 
-Longest river: Sava (992 km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unitary dominant-party parliamentary republic with an executive presidency. 
-Southern Africa 
-Landlocked 
-Highest point: Otse Hill (1,491 m) 
-Longest river: Zambezi (2,574 km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A federal presidential constitutional republic. 
-South America 
-Ocean: Atlantic 
-Highest point: Pico da Neblina (2,995 m) 
-Longest river: Amazon (6,500 km) </t>
-  </si>
-  <si>
-    <t>A unitary Islamic absolute monarchy. An island country. 
-Southeast Asia. The north coast of the Borneo Island. 
-Sea: the South China Sea 
-Highest point: Pagon (1,850 m) 
-Longest river: Belait (209km)</t>
   </si>
   <si>
     <t>Area: 5,765 km2 (164th)
@@ -963,43 +784,18 @@
 Pop.: 2,588,423 (145th) </t>
   </si>
   <si>
-    <t xml:space="preserve">Area: 
-Pop.: </t>
-  </si>
-  <si>
     <t>Area: 110,993.6 km2 (103rd)
 Pop.: 6,520,314 (106th)</t>
   </si>
   <si>
-    <t>A unitary parliamentary republic.
-Southeast Europe. The Balkan Peninsula.
-Sea: the Black Sea
-Highest point: Musala (2,925 m)
-Longest river: Danube (2,888 km)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Area: 274,200 km2 (74th) 
 Pop.: 21,510,181 (58th) </t>
   </si>
   <si>
-    <t xml:space="preserve">A unitary semi-presidential republic. 
-West Africa. 
-Landlocked 
-Highest point: Mount Tenakourou (747 m) 
-Longest river: Black Volta (1,352 km) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Area: 27,834 km2 (142nd) 
 Pop.: 11,865,821 (77th) </t>
   </si>
   <si>
-    <t xml:space="preserve">A unitary dominant-party presidential republic. 
-East Africa. 
-Landlocked 
-Highest point: Mount Heha (2,684 m) 
-Longest river: Nile (6,650 km) </t>
-  </si>
-  <si>
     <t>Cape Verde</t>
   </si>
   <si>
@@ -1007,14 +803,1156 @@
 Pop.: 483,628 (172nd) </t>
   </si>
   <si>
-    <t>A unitary semi-presidential republic. An island country. 
+    <t>Praia</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 
+Pop.: 
+Density: </t>
+  </si>
+  <si>
+    <t>Yaoundé</t>
+  </si>
+  <si>
+    <t>Area:  475,442 km2 (53rd) 
+Pop.: 29,321,637 (51st)
+Density: 39.7/km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ottawa</t>
+  </si>
+  <si>
+    <t>Area:  9,984,670 km2 (2nd)
+Pop.: 39,292,355 (37th)
+Density: 4.2/km2</t>
+  </si>
+  <si>
+    <t>Bangui</t>
+  </si>
+  <si>
+    <t>Area: 622,984 km2 (44th)
+Pop.: 5,454,533 (119th)
+Density:  7.1/km2</t>
+  </si>
+  <si>
+    <t>N'Djamena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 1,284,000 km2 (20th)
+Pop.: 17,963,211 (67th)
+Density: 8.6/km2 </t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Area: 756,096.3 km2 (37th)
+Pop.: 18,430,408 (66th)
+Density: 24/km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beijing</t>
+  </si>
+  <si>
+    <t>Area: 181,035 km2 (88th)
+Pop.: 16,713,015 (72nd) 
+Density: 87/km2</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 1,141,748 km2 (25th)
+Pop.: 52,156,254 (27th)
+Density: 42.23/km2 </t>
+  </si>
+  <si>
+    <t>Moroni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  1,861 km2 (170th)
+Pop.: 850,886 (160th)
+Density: 457/km2 </t>
+  </si>
+  <si>
+    <t>Highest point: Noshaq (7,492 m) 
+Longest river: Amu Darya (2,620 km)</t>
+  </si>
+  <si>
+    <t>Highest point: Korab (2,764 m) 
+Longest river: Drin (335 km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point:  Coma Pedrosa (2,942 m) 
+Longest river: Gran Valira (35 km) </t>
+  </si>
+  <si>
+    <t>Highest point: Tahat (3,003 m) 
+Longest river: Chelif (725 km)</t>
+  </si>
+  <si>
+    <t>Area / Pop.</t>
+  </si>
+  <si>
+    <t>Highest point / Longest river</t>
+  </si>
+  <si>
+    <t>Highest point: Mount Moco (2,620 m) 
+Longest river: Congo (4,700 km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Boggy Peak (402 m) 
+No rivers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Aconcagua (6,961m) 
+Longest river: Paraná (4,880 km) </t>
+  </si>
+  <si>
+    <t>Highest point: Aragats (4,090 m) 
+Longest river: Aras (1,072 km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Kosciuszko (2,228 m) 
+Longest river: Murray (2,508 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Grossglockner (3,798 m) 
+Longest river: Danube (2,850 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Bazarduzu (4,466 m) 
+Longest river: Kura (1,515 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Alvernia (63 m) 
+Longest river: Goose (8 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Jabal al Dukhan (134 m) 
+No rivers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Keokradong (986 m) 
+Longest river: Brahmaputra (3,969 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Hillaby (340 m) 
+Longest river: Constitution (0.57 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Dzyarzhynskaya (200 m) 
+Longest river: Dnieper(2,145 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Signal de Botrange (694 m) 
+Longest river: Meuse (925 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Victoria (1,122 m) 
+Longest river: Belize (290 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Mont Sokbaro (658 m) 
+Longest river: Niger (4,184 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Gangkhar Puensum (7,570 m) 
+Longest river: Manas (400 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Nevado Sajama (6,542 m) 
+Longest river: Paraguay (2,695 km) </t>
+  </si>
+  <si>
+    <t>Highest point: Maglić (2,386 m) 
+Longest river: Sava (992 km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Otse Hill (1,491 m) 
+Longest river: Zambezi (2,574 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Pico da Neblina (2,995 m) 
+Longest river: Amazon (6,500 km) </t>
+  </si>
+  <si>
+    <t>Highest point: Pagon (1,850 m) 
+Longest river: Belait (209km)</t>
+  </si>
+  <si>
+    <t>Highest point: Musala (2,925 m)
+Longest river: Danube (2,888 km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Tenakourou (747 m) 
+Longest river: Black Volta (1,352 km) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: Heha (2,684 m) 
+Longest river: Nile (6,650 km) </t>
+  </si>
+  <si>
+    <t>Highest point: Mount Fogo (2,829 m) 
+Longest river: Ribeira do Rabil (27km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary dominant-party parliamentary elective constitutional monarchy.
+Southeast Asia. The southern portion of the Indochinese Peninsula.
+Washed by: the Gulf of Thailand </t>
+  </si>
+  <si>
+    <t>Highest point: Phnom Aural (1,813 m)
+Longest river: Mekong (4,909 km)</t>
+  </si>
+  <si>
+    <t>Highest point: Cameroon (4,040 m)
+Longest river: Sanaga (603 km)</t>
+  </si>
+  <si>
+    <t>Highest point: Ngaoui (1,410 m)
+Longest river: Kasai (2,153 km)</t>
+  </si>
+  <si>
+    <t>Highest point: Logan (5,959 m)
+Longest river: Mackenzie (4,241 km)</t>
+  </si>
+  <si>
+    <t>Highest point: Emi Koussi (3,415 m )
+Longest river: Chari (1,400 km)</t>
+  </si>
+  <si>
+    <t>Highest point: Ojos del Salado (6,893 m)
+Longest river: Loa (440 km)</t>
+  </si>
+  <si>
+    <t>Highest point: Everest (8,848 m)
+Longest river: Yangtze (6,300 km)</t>
+  </si>
+  <si>
+    <t>Highest point: Pico Cristóbal Colón (5,730 m)
+Longest river: Magdalena (1,528 km)</t>
+  </si>
+  <si>
+    <t>Highest point: Karthala (2,361 m)
+Longest river: no major rivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary provisional theocratic Islamic emirate. 
+The crossroads of Central Asia and South Asia. 
+Landlocked </t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic. 
+North Africa. 
+Washed by: the Mediterranean Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary parliamentary constitutional elective diarchy. 
+Southwestern Europe. The Iberian Peninsula in the eastern Pyrenees. 
+Landlocked </t>
+  </si>
+  <si>
+    <t>Unitary dominant-party presidential republic. 
+Southern Africa. The west coast. 
+Washed by: the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Federal presidential republic. 
+South America. The southern half. 
+Washed by: the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic. 
+Western Asia. 
+Landlocked</t>
+  </si>
+  <si>
+    <t>Federal parliamentary constitutional monarchy. 
+Oceania. 
+Washed by: the Indian and Pacific Oceans and the Arafura, Timor, Coral, and Tasman Seas</t>
+  </si>
+  <si>
+    <t>Federal parliamentary republic. 
+Central Europe. The southern part. 
+Landlocked</t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic. 
+The boundary of Eastern Europe and Western Asia. 
+Washed by: the Caspian Sea</t>
+  </si>
+  <si>
+    <t>Unitary dominant-party parliamentary republic. 
+South Asia. 
+Washed by: the Indian Ocean and the Bay of Bengal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary presidential republic. 
+Eastern Europe. 
+Landlocked </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal parliamentary constitutional monarchy. 
+Northwestern Europe. 
+Washed by: the North Sea </t>
+  </si>
+  <si>
+    <t>Unitary parliamentary constitutional monarchy. 
+Central America 
+Washed by: the Caribbean Sea</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary semi-constitutional monarchy. 
+Southern Asia. The Eastern Himalayas. 
+Landlocked</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic. 
+Western-central South America. 
+Landlocked</t>
+  </si>
+  <si>
+    <t>Federal parliamentary directorial republic.
+The crossroads of south and southeast Europe
+Washed by: the Adriatic Sea within the Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Unitary dominant-party parliamentary republic with an executive presidency. 
+Southern Africa 
+Landlocked</t>
+  </si>
+  <si>
+    <t>Federal presidential constitutional republic. 
+South America 
+Washed by: the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary Islamic absolute monarchy. An island country. 
+Southeast Asia. The north coast of the Borneo Island. 
+Washed by: the South China Sea </t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic.
+Southeast Europe. The Balkan Peninsula.
+Washed by: the Black Sea</t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic. 
+West Africa. 
+Landlocked</t>
+  </si>
+  <si>
+    <t>Unitary dominant-party presidential republic. 
+East Africa. 
+Landlocked</t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic. An island country. 
 An archipelago in the central Atlantic Ocean. 
-Ocean: Atlantic 
-Highest point: Mount Fogo (2,829 m) 
-Longest river: Ribeira do Rabil (27km)</t>
-  </si>
-  <si>
-    <t>Praia</t>
+Washed by: the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Kinshasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest point: 
+Longest river: </t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic
+Central Africa 
+Washed by: the South Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>Area: 2,345,409 km2 (11th) 
+Pop.: 108,407,721[3] (14th)
+Density:  46.3/km2</t>
+  </si>
+  <si>
+    <t>Area: 51,100 km2 (126th)
+Pop.: 5,204,41 (124th) 
+Density: 84.9/km2</t>
+  </si>
+  <si>
+    <t>Yamoussoukro</t>
+  </si>
+  <si>
+    <t>Area:  322,463 km2 (68th)
+Pop.: 29,389,150 (52nd)
+Density: 91.1/km2</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 56,594 km2 (124th)
+Pop.: 3,871,833 (128th)
+Density: 68.4/km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary presidential republic
+The southern coast of West Africa
+Washed by: the Gulf of Guinea (Atlantic Ocean) </t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>Area: 109,884 km2 (104th)
+Pop.: 11,008,112[6] (84th)
+Density: 101.8/km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary parliamentary republic. 
+Southeastern Europe. The Balkan Peninsula. 
+Washed by: the Adriatic and Ionian Seas (within the Mediterranean Sea) </t>
+  </si>
+  <si>
+    <t>Unitary presidential republic
+The Central American region of North America
+Washed by: the Pacific Ocean and Caribbean Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary Islamic parliamentary semi-constitutional monarchy. An island country. 
+Western Asia. 
+Washed by: the Indian Ocean and Persian Gulf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary presidential republic. 
+West Africa. 
+Washed by: the Atlantic Ocean and Gulf of Guinea </t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic
+The crossroads of Central and Southeast Europe.
+Washed by: the Adriatic Sea within the Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Unitary dominant-party presidential republic.
+West-central Africa.
+Washed by: the Athlandic Ocean and Gulf of Guinea</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  9,251 km2 (162nd)
+Pop.: 1,244,188 (158th)
+Density:  123.4/km2 </t>
+  </si>
+  <si>
+    <t>Federal parliamentary constitutional monarchy.
+North America.
+Washed by: the Atlantic, Pacific and Arctic Oceans</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic.
+Central Africa.
+Landlocked</t>
+  </si>
+  <si>
+    <t>Unitary republic.
+At the crossroads of North and Central Africa.
+Landlocked</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic.
+Western South America.
+Washed by: the Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Unitary Marxist–Leninist one-party socialist republic.
+East Asia
+Washed by: the Bohai, Huanghai, East China, and South China Seas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary presidential republic.
+South America with insular regions in North America—near Nicaragua's Caribbean coast—as well as in the Pacific Ocean
+Washed by: the Pacific Ocean and Caribbean Sea </t>
+  </si>
+  <si>
+    <t>Federal Islamic presidential republic. An island country.
+Southeastern Africa
+Washed by: the Indian Ocean and Mozambique Channel</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic. An island country.
+Western Asia
+Washed by: the eastern Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Area: 78,871 km2 (115th)
+Pop.: 10,516,707 (86th)
+Density: 133/km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary parliamentary republic.
+Central Europe
+Landlocked </t>
+  </si>
+  <si>
+    <t>Pyongyang</t>
+  </si>
+  <si>
+    <t>Area:  120,540 km2 (98th)
+Pop.: 25,955,138 (55th)
+Density: 212/km2</t>
+  </si>
+  <si>
+    <t>Unitary one-party socialist republic.
+East Asia
+Washed by: the Yellow Sea and Sea of Japan</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Area:  42,943 km2 (130th)
+Pop.: 5,928,364 (114th)
+Density: 138.05/km2</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary constitutional monarchy.
+Northern Europe
+Washed by: the Baltic and North Seas</t>
+  </si>
+  <si>
+    <t>Area: 23,200 km2 (146th)
+Pop.:  957,273 (162nd)
+Density:  37.2/km2</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic.
+East Africa. The Horn of Africa, also known as the Somali Peninsula
+Washed by: the Red Sea and Gulf of Aden</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 750 km2 (174th)
+Pop.: 72,412 (204th)
+Density: 105/km2 </t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic. An island country.
+The Caribbean 
+Washed by: the Caribbean Sea</t>
+  </si>
+  <si>
+    <t>Unitary Marxist–Leninist one-party socialist republic. An island country.
+The Caribbean 
+Washed by: the juncture of the northern Caribbean Sea, Gulf of Mexico, and Atlantic Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary dominant-party parliamentary constitutional monarchy. An island country. 
+The Caribbean. The West Indies. 
+Washed by: the juncture of the Atlantic Ocean and Caribbean Sea </t>
+  </si>
+  <si>
+    <t>Unitary parliamentary constitutional monarchy. An island country. 
+The Caribbean. The West Indies. The Lucayan Archipelago. 
+Washed by: the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic. An island country. 
+The Caribbean. The West Indies. The Lesser Antilles. 
+Washed by: the Atlantic Ocean and Caribbean Sea</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  48,671 km2 (128th)
+Pop.:  10,694,700 (87th)
+Density:  220/km2 </t>
+  </si>
+  <si>
+    <t>Unitary presidential republic. An island country.
+The Caribbean. The Greater Antilles archipelago. The eastern five-eighths of Hispaniola Island
+Washed by: the Caribbean Sea</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Area: 256,370 km2 (73rd)
+Pop.: 17,289,554 (71st)
+Density: 69/km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary presidential republic
+Northwestern South America
+Washed by: the Pacific Ocean </t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  1,010,408 km2 (29th)
+Pop.: 107,770,524 (14th)
+Density:  102/km2 </t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic
+The northeast corner of Africa and southwest corner of Asia
+Washed by: the Mediterranean and Red Seas and the Gulf of Aqaba</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  21,041 km2 (148th) 
+Pop.:  6,572,243 (109th)
+Density: 324.4/km2 </t>
+  </si>
+  <si>
+    <t>Unitary presidential republic
+Central America
+Washed by: the Pacific Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malabo</t>
+  </si>
+  <si>
+    <t>Unitary dominant-party presidential republic.
+The west coast of Central Africa
+Washed by: the Gulf of Guinea</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  28,050 km2 (141st)
+Pop.: 1,679,172 (154th)
+Density: 29,8/km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 117,600 km2 (97th)
+Pop.: 3,684,000 (130th)
+Density: 31/km2 </t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Area:  45,339 km2 (129thd)
+Pop.: 1,357,739 (152nd)
+Density: 30.6/km2</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic.
+Northern Europe
+Washed by: the Baltic Sea and Gulf of Finland</t>
+  </si>
+  <si>
+    <t>Mbabane</t>
+  </si>
+  <si>
+    <t>Area: 17,364 km2 (153rd)
+Pop.: 1,160,164 (155th)
+Density: 66.8/km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary absolute monarchy
+Southern Africa
+Landlocked </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  1,104,300 km2 (26th) 
+Pop.:  113,656,596 (13th)
+Density: 92.7/km2 </t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>Unitary one-party presidential republic.
+East Africa. The Horn of Africa
+Washed by: the Red Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal parliamentary republic
+East Africa. The Horn of Africa
+Landlocked </t>
+  </si>
+  <si>
+    <t>Suva</t>
+  </si>
+  <si>
+    <t>Area:  18,274 km2 (151st)
+Pop.: 926,276 (161st)
+Density: 46.4/km2</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic. An island country.
+Oceania. Melanesia
+Washed by:  the South Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Area: 338,455 km2 (65th)
+Pop.: 5,566,000 (116th)
+Density: 16.4/km2</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Area: 643,801 km2 (42nd)
+Pop.: 68,042,591 (20th)
+Density: 121/km2</t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic.
+Western Europe
+Washed by: the Atlantic Ocean, Mediterranean Sea, English Channel, and North Sea</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic.
+Northern Europe
+Washed by: the Baltic Sea, Gulf of Finland, and Gulf of Bothnia</t>
+  </si>
+  <si>
+    <t>Libreville</t>
+  </si>
+  <si>
+    <t>Area: 267,667 km2 (76th)
+Pop.:  2,340,613 (146th)
+Density: 7.9/km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary dominant-party presidential republic.
+The west coast of Central Africa
+Washed by: the Gulf of Guinea </t>
+  </si>
+  <si>
+    <t>Banjul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  10,689 km2 (159th)
+Pop.: 2,413,403
+Density: 176.1/km2 </t>
+  </si>
+  <si>
+    <t>Unitary presidential republic.
+West Africa
+Washed by: the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Area:  69,700 km2 (119th)
+Pop.:  3,688,647 (126th)
+Density: 57.6/km2</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Area:  357,592 km2 (63rd)
+Pop.: 84,270,625 (19th)
+Density: 232/km2</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>Area: 238,535 km2 (80th)
+Pop.: 32,103,042 (47th)
+Density: 101.5/km2</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic.
+West Africa
+Washed by: the Atlantic Ocean and Gulf of Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary parliamentary republic.
+The intersection of Eastern Europe and Western Asia
+Washed by: the Black Sea </t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Area:  131,957 km2 (95th)
+Pop.: 10,432,481 (88th)
+Density:  79.1/km</t>
+  </si>
+  <si>
+    <t>Federal parliamentary republic.
+Central Europe
+Washed by: the Baltic and North seas</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic. An archipelagic country.
+Southeast Europ. The Balkan Peninsula.
+Washed by: the Mediterranean, Aegean, Ionian Seas, and the Sea of Crete</t>
+  </si>
+  <si>
+    <t>St. George's</t>
+  </si>
+  <si>
+    <t>Area: 348.5 km2 (185th)
+Pop.: 124,610 (179th)
+Density: 318.58/km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary parliamentary constitutional monarchy. An island country.
+The Caribbean. The West Indies. 
+Washed by: the Caribbean Sea </t>
+  </si>
+  <si>
+    <t>Guatemala City</t>
+  </si>
+  <si>
+    <t>Area:  108,889 km2 (105th)
+Pop.: 17,608,483 (69th)
+Density: 129/km2</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic.
+Central America
+Washed by: the Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Conakry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  245,857 km2 (77th)
+Pop.:  13,237,832 (75th)
+Density: 40.9/km2 </t>
+  </si>
+  <si>
+    <t>Unitary republic.
+West Africa
+Washed by: the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Bissau</t>
+  </si>
+  <si>
+    <t>Area: 36,125 km2 (134th)
+Pop.: 2,026,778 (150th)
+Density: 46.9/km2</t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic.
+West Africa
+Washed by: the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 214,970 km2 (83rd)
+Pop.: 795,408 (166th)
+Density: 3.5/km2 </t>
+  </si>
+  <si>
+    <t>Unitary assembly-independent republic.
+Northeast of South America
+Washed by: the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Area:  27,800 km2 (143rd)
+Pop.:  11,334,637 (83rd)
+Density: 382/km2</t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic.
+The Caribbean. The Greater Antilles archipelago. The western three-eighths of Hispaniola Island
+Washed by: the Caribbean Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 112,492 km2 (101st)
+Pop.: 9,459,440 (95th)
+Density: 85/km2 </t>
+  </si>
+  <si>
+    <t>Tegucigalpa</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic.
+Central America
+Washed by: the Gulf of Fonseca of the Pacific Ocean and the Gulf of Honduras of the Caribbean Sea</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Area:  93,030[7] km2 (108th)
+Pop.:  9,678,000 (92nd)
+Density: 105/km2</t>
+  </si>
+  <si>
+    <t>Reykjavík</t>
+  </si>
+  <si>
+    <t>Area: 102,775[4] km2(106th)
+Pop.: 376,248 (171st)
+Density: 3.66/km2</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic. An island country.
+West of Northern Europe
+Washed by: the North Atlantic and Arctic Oceans</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Area: 9,596,961 km2 (3rd)
+Pop.: 1,411,750,000 (2nd)
+Density: 145/km2</t>
+  </si>
+  <si>
+    <t>Federal parliamentary constitutional republic.
+South Asia
+Washed by: the Indian Ocean, Arabian Sea, Bay of Bengal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  3,287,263 km2 (7th)
+Pop.: 1,428,230,498 (1st)
+Density: 419.1/km2 </t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Area: 1,904,569 km2 (14th)
+Pop.: 277,329,163 (4th)
+Density: 143/km2</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic. A transcontinental, archipelagic country.
+The southeastern part of Asia and western part of Oceania
+Washed by: the Indian and Pacific Oceans</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>Area: 1,648,195 km2 (17th)
+Pop.: 86,758,304 (17th)
+Density: 48/km2</t>
+  </si>
+  <si>
+    <t>Unitary theocratic Islamic republic.
+Western Asia
+Washed by: the Caspian Sea, Gulf of Oman, and Persian Gulf</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  438,317 km2 (58th)
+Pop.: 40,462,701 (35th)
+Density: 82.7/km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal parliamentary republic.
+Western Asia
+Washed by: the Persian Gulf </t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  70,273 km2 (118th)
+Pop.: 5,123,536 (122nd)
+Density: 71.3/km2 </t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic.
+An island country in north-western Europe.
+Washed by: the Atlantic Ocean, Irish and Celtic Seas and St George's Channel</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  20,770 km2 (149th)
+Pop.: 9,681,440 (91st)
+Density: 439/km2 </t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic.
+Western Asia
+Washed by: the Red and Eastern Mediterranean Seas</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 301,230 km2 (71st)
+Pop.: 58,853,482 (25th)
+Density: 201.3/km2 </t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic.
+Southern and Western Europe
+Washed by: the Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 10,991 km2 (160th)
+Pop.: 2,726,667 (141st)
+Density: 266/km2 </t>
+  </si>
+  <si>
+    <t>Unitary parliamentary constitutional monarchy.
+An island country. The Caribbean. The Greater Antilles archipelago. 
+Washed by: the Caribbean Sea</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Area: 377,975 km2 (62nd)
+Pop.: 124,840,000 (11th)
+Density: 330/km2</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary constitutional monarchy
+An island country in East Asia
+Washed by:  the northwest Pacific Ocean, the Sea of Japan, the Sea of Okhotsk, the East China Sea, and Philippine Sea</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>Area: 89,342 km2 (110th)
+Pop.: 11,042,719 (84th)
+Density: 114/km2</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary constitutional monarchy
+The crossroads of Asia, Africa, and Europe
+Washed by: the Dead Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Astana</t>
+  </si>
+  <si>
+    <t>Area:  2,724,900 km2 (9th)
+Pop.: 19,398,331 (64th)
+Density: 7/km2</t>
+  </si>
+  <si>
+    <t>Unitary dominant-party presidential republic
+A transcontinental country. Central Asia and partly Eastern Europe
+Washed by: the Caspian Sea</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Area: 580,367 km2 (48th)
+Pop.: 55,864,655 (27th)
+Density: 78/km2</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic
+East Africa
+Washed by: the Indian Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Tarawa </t>
+  </si>
+  <si>
+    <t>Area: 811 km2 (172nd)
+Pop.: 121,388 (192nd)
+Density: 151.9/km2</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic with an executive presidency
+An island country. Oceania 
+Washed by: the Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Kuwait City</t>
+  </si>
+  <si>
+    <t>Area:  17,818 km2 (152nd)
+Pop.: 4,294,621 (137th)
+Density: 200.2/km2</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary elective semi-constitutional monarchy
+Western Asia
+Washed by: the Persian Gulf</t>
+  </si>
+  <si>
+    <t>Bishkek</t>
+  </si>
+  <si>
+    <t>Area:  199,951 km2 (85th)
+Pop.:  7,000,000 (112th[6])
+Density: 27.4/km2</t>
+  </si>
+  <si>
+    <t>Unitary presidential republic
+Central Asia
+Landlocked</t>
+  </si>
+  <si>
+    <t>Vientiane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area: 236,800 km2 (82nd)
+Pop.: 7,749,595 (103rd)
+Density: 26.7/km2 </t>
+  </si>
+  <si>
+    <t>Unitary Marxist–Leninist one-party socialist republic
+Southeast Asia
+Landlocked</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Area: 64,589 km2 (122nd)
+Pop.: 1,842,226 (153rd)
+Density: 29.6/km2</t>
+  </si>
+  <si>
+    <t>Unitary parliamentary republic
+The Baltic region of Northern Europe
+Washed by: the Baltic Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area:  10,452 km2 (161st)
+Pop.:  5,296,814 (122nd)
+Density: 560/km2 </t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Unitary confessionalist parliamentary republic
+Western Asia
+Washed by: the Mediterranean Sea</t>
   </si>
 </sst>
 </file>
@@ -1371,21 +2309,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
@@ -1393,13 +2332,16 @@
         <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,13 +2349,16 @@
         <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1421,13 +2366,16 @@
         <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1435,13 +2383,16 @@
         <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1449,13 +2400,16 @@
         <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1463,13 +2417,16 @@
         <v>193</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1477,13 +2434,16 @@
         <v>194</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1491,13 +2451,16 @@
         <v>195</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1505,13 +2468,16 @@
         <v>196</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1519,13 +2485,16 @@
         <v>197</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1533,13 +2502,16 @@
         <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1547,13 +2519,16 @@
         <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1561,13 +2536,16 @@
         <v>200</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1575,13 +2553,16 @@
         <v>201</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1589,13 +2570,16 @@
         <v>202</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1603,13 +2587,16 @@
         <v>203</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1617,13 +2604,16 @@
         <v>204</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1631,13 +2621,16 @@
         <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,13 +2638,16 @@
         <v>206</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1659,13 +2655,16 @@
         <v>207</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>208</v>
       </c>
@@ -1673,13 +2672,16 @@
         <v>209</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>210</v>
       </c>
@@ -1687,13 +2689,16 @@
         <v>211</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,13 +2706,16 @@
         <v>212</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1715,13 +2723,16 @@
         <v>213</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1729,13 +2740,16 @@
         <v>214</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>215</v>
       </c>
@@ -1743,13 +2757,16 @@
         <v>216</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,13 +2774,16 @@
         <v>217</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>218</v>
       </c>
@@ -1771,13 +2791,16 @@
         <v>219</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1785,1340 +2808,2218 @@
         <v>220</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="C35" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="C46" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
